--- a/SchedulingData/static5/pso/scheduling1_9.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_9.xlsx
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.56</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>25.944</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>94.52</v>
       </c>
       <c r="E3" t="n">
-        <v>26.48</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>84.36</v>
+        <v>61.52</v>
       </c>
       <c r="E4" t="n">
-        <v>26.724</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72.56</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>161.48</v>
+        <v>127.56</v>
       </c>
       <c r="E5" t="n">
-        <v>21.632</v>
+        <v>21.524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>62.8</v>
+        <v>99.78</v>
       </c>
       <c r="E6" t="n">
-        <v>27.36</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>112.68</v>
+        <v>72.5</v>
       </c>
       <c r="E7" t="n">
-        <v>23.532</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="8">
@@ -580,93 +580,93 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>112.68</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>154.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>20.94</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>84.36</v>
+        <v>99.78</v>
       </c>
       <c r="D9" t="n">
-        <v>139.04</v>
+        <v>140.38</v>
       </c>
       <c r="E9" t="n">
-        <v>22.876</v>
+        <v>23.232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>154.8</v>
+        <v>72.5</v>
       </c>
       <c r="D10" t="n">
-        <v>217.72</v>
+        <v>137.92</v>
       </c>
       <c r="E10" t="n">
-        <v>17.768</v>
+        <v>22.968</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>94.52</v>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>133.92</v>
       </c>
       <c r="E11" t="n">
-        <v>24.9</v>
+        <v>22.388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>139.04</v>
+        <v>140.38</v>
       </c>
       <c r="D12" t="n">
-        <v>206.1</v>
+        <v>189.18</v>
       </c>
       <c r="E12" t="n">
-        <v>18.3</v>
+        <v>20.992</v>
       </c>
     </row>
     <row r="13">
@@ -675,55 +675,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>63</v>
+        <v>137.92</v>
       </c>
       <c r="D13" t="n">
-        <v>129.9</v>
+        <v>208.92</v>
       </c>
       <c r="E13" t="n">
-        <v>21.3</v>
+        <v>19.488</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>161.48</v>
+        <v>127.56</v>
       </c>
       <c r="D14" t="n">
-        <v>241.58</v>
+        <v>194.42</v>
       </c>
       <c r="E14" t="n">
-        <v>18.212</v>
+        <v>16.948</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>241.58</v>
+        <v>133.92</v>
       </c>
       <c r="D15" t="n">
-        <v>310</v>
+        <v>209.2</v>
       </c>
       <c r="E15" t="n">
-        <v>14.46</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="16">
@@ -732,302 +732,302 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>129.9</v>
+        <v>208.92</v>
       </c>
       <c r="D16" t="n">
-        <v>170.1</v>
+        <v>285.68</v>
       </c>
       <c r="E16" t="n">
-        <v>17.92</v>
+        <v>16.892</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>206.1</v>
+        <v>285.68</v>
       </c>
       <c r="D17" t="n">
-        <v>262</v>
+        <v>351.1</v>
       </c>
       <c r="E17" t="n">
-        <v>14.82</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>217.72</v>
+        <v>61.52</v>
       </c>
       <c r="D18" t="n">
-        <v>297.74</v>
+        <v>135.04</v>
       </c>
       <c r="E18" t="n">
-        <v>14.856</v>
+        <v>21.776</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>297.74</v>
+        <v>189.18</v>
       </c>
       <c r="D19" t="n">
-        <v>373.74</v>
+        <v>236.58</v>
       </c>
       <c r="E19" t="n">
-        <v>11.376</v>
+        <v>17.872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>262</v>
+        <v>236.58</v>
       </c>
       <c r="D20" t="n">
-        <v>322.92</v>
+        <v>297.88</v>
       </c>
       <c r="E20" t="n">
-        <v>10.348</v>
+        <v>14.352</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>310</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>349.96</v>
+        <v>118.88</v>
       </c>
       <c r="E21" t="n">
-        <v>11.604</v>
+        <v>23.412</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>62.8</v>
+        <v>118.88</v>
       </c>
       <c r="D22" t="n">
-        <v>157.32</v>
+        <v>197.52</v>
       </c>
       <c r="E22" t="n">
-        <v>23.488</v>
+        <v>19.148</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>209.2</v>
       </c>
       <c r="D23" t="n">
-        <v>65.90000000000001</v>
+        <v>283.8</v>
       </c>
       <c r="E23" t="n">
-        <v>25.58</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>349.96</v>
+        <v>194.42</v>
       </c>
       <c r="D24" t="n">
-        <v>389.36</v>
+        <v>231.64</v>
       </c>
       <c r="E24" t="n">
-        <v>8.304</v>
+        <v>14.356</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>65.90000000000001</v>
+        <v>231.64</v>
       </c>
       <c r="D25" t="n">
-        <v>109.82</v>
+        <v>289.78</v>
       </c>
       <c r="E25" t="n">
-        <v>22.808</v>
+        <v>11.672</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>170.1</v>
+        <v>297.88</v>
       </c>
       <c r="D26" t="n">
-        <v>234.78</v>
+        <v>360.28</v>
       </c>
       <c r="E26" t="n">
-        <v>14.072</v>
+        <v>11.712</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>322.92</v>
+        <v>197.52</v>
       </c>
       <c r="D27" t="n">
-        <v>393.02</v>
+        <v>254.92</v>
       </c>
       <c r="E27" t="n">
-        <v>7.428</v>
+        <v>14.048</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>157.32</v>
+        <v>351.1</v>
       </c>
       <c r="D28" t="n">
-        <v>207.84</v>
+        <v>427.1</v>
       </c>
       <c r="E28" t="n">
-        <v>20.056</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>109.82</v>
+        <v>289.78</v>
       </c>
       <c r="D29" t="n">
-        <v>183.36</v>
+        <v>358.5</v>
       </c>
       <c r="E29" t="n">
-        <v>18.544</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>207.84</v>
+        <v>283.8</v>
       </c>
       <c r="D30" t="n">
-        <v>267.64</v>
+        <v>367.2</v>
       </c>
       <c r="E30" t="n">
-        <v>16.696</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>183.36</v>
+        <v>254.92</v>
       </c>
       <c r="D31" t="n">
-        <v>247.24</v>
+        <v>318.68</v>
       </c>
       <c r="E31" t="n">
-        <v>16.256</v>
+        <v>10.772</v>
       </c>
     </row>
     <row r="32">
@@ -1036,150 +1036,150 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>267.64</v>
+        <v>358.5</v>
       </c>
       <c r="D32" t="n">
-        <v>320.72</v>
+        <v>404.38</v>
       </c>
       <c r="E32" t="n">
-        <v>13.528</v>
+        <v>5.932</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>234.78</v>
+        <v>360.28</v>
       </c>
       <c r="D33" t="n">
-        <v>297.18</v>
+        <v>395.24</v>
       </c>
       <c r="E33" t="n">
-        <v>10.952</v>
+        <v>8.856</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>297.18</v>
+        <v>318.68</v>
       </c>
       <c r="D34" t="n">
-        <v>345.88</v>
+        <v>373.36</v>
       </c>
       <c r="E34" t="n">
-        <v>7.212</v>
+        <v>6.924</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>345.88</v>
+        <v>395.24</v>
       </c>
       <c r="D35" t="n">
-        <v>408.28</v>
+        <v>440.34</v>
       </c>
       <c r="E35" t="n">
-        <v>4.092</v>
+        <v>5.476</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>389.36</v>
+        <v>373.36</v>
       </c>
       <c r="D36" t="n">
-        <v>434.46</v>
+        <v>421.28</v>
       </c>
       <c r="E36" t="n">
-        <v>4.924</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>320.72</v>
+        <v>135.04</v>
       </c>
       <c r="D37" t="n">
-        <v>384.22</v>
+        <v>200.14</v>
       </c>
       <c r="E37" t="n">
-        <v>11.288</v>
+        <v>18.396</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>384.22</v>
+        <v>367.2</v>
       </c>
       <c r="D38" t="n">
-        <v>446.86</v>
+        <v>427</v>
       </c>
       <c r="E38" t="n">
-        <v>8.603999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>373.74</v>
+        <v>200.14</v>
       </c>
       <c r="D39" t="n">
-        <v>439.42</v>
+        <v>269.76</v>
       </c>
       <c r="E39" t="n">
-        <v>8.407999999999999</v>
+        <v>14.524</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>247.24</v>
+        <v>269.76</v>
       </c>
       <c r="D40" t="n">
-        <v>336.84</v>
+        <v>318.64</v>
       </c>
       <c r="E40" t="n">
-        <v>10.916</v>
+        <v>12.236</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>336.84</v>
+        <v>427</v>
       </c>
       <c r="D41" t="n">
-        <v>403.8</v>
+        <v>464.6</v>
       </c>
       <c r="E41" t="n">
-        <v>8.32</v>
+        <v>3.88</v>
       </c>
     </row>
   </sheetData>
